--- a/raw_data/data_nouns.xlsx
+++ b/raw_data/data_nouns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/udo/Desktop/hebrew_app/webapp/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/udo/Desktop/hebrew_app/HebrewApplication/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26BB42A-263C-E64D-B5AA-5BE5930B9F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6D5F7B-613B-DC45-BEEE-9EF19D1BA3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{B5F46B66-C458-8242-AC74-D8838794393C}"/>
   </bookViews>
@@ -750,15 +750,14 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="5" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -766,33 +765,34 @@
         <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -800,16 +800,16 @@
         <v>88</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -817,16 +817,16 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -834,16 +834,16 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -852,16 +852,16 @@
         <v>91</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -869,16 +869,16 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -886,16 +886,16 @@
         <v>93</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -903,16 +903,16 @@
         <v>94</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -920,16 +920,16 @@
         <v>95</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -937,16 +937,16 @@
         <v>96</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -954,16 +954,16 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -971,16 +971,16 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -988,16 +988,16 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1005,16 +1005,16 @@
         <v>100</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,16 +1022,16 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
       <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
         <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1039,16 +1039,16 @@
         <v>102</v>
       </c>
       <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
       <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
         <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1056,16 +1056,16 @@
         <v>103</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
       <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
         <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1073,16 +1073,16 @@
         <v>104</v>
       </c>
       <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
       <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1090,16 +1090,16 @@
         <v>105</v>
       </c>
       <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
       <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
         <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1107,16 +1107,16 @@
         <v>106</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
       <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1124,16 +1124,16 @@
         <v>107</v>
       </c>
       <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
       <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
         <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
